--- a/create_forecast_basic/future/bau/Intermediates/240501_pop_2035_bau.xlsx
+++ b/create_forecast_basic/future/bau/Intermediates/240501_pop_2035_bau.xlsx
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>26126.53632743943</v>
+        <v>26519.05329032251</v>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>11074.18681390803</v>
+        <v>10503.43690607538</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>11863.46056681986</v>
+        <v>12041.69351176943</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
